--- a/01_data-input/wiiw/un-employment.xlsx
+++ b/01_data-input/wiiw/un-employment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5638C2F6-9956-469D-8EA3-4C31BDA7A943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2446B5FF-F529-4059-86D0-AFC412C40D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
